--- a/AAII_Financials/Quarterly/NOTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOTE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>NOTE</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,39 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
-      </c>
-      <c r="F7" s="2">
-        <v>44469</v>
       </c>
       <c r="G7" s="2">
         <v>44377</v>
@@ -703,63 +705,69 @@
       <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="I7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>27200</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>26100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>82900</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>19300</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>17300</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3000</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -770,25 +778,28 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>66900</v>
+      </c>
+      <c r="G10" s="3">
+        <v>15500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>14300</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -799,8 +810,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,25 +826,26 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5300</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -841,8 +856,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,66 +888,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-7400</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>15200</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>3400</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +965,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1900</v>
+        <v>38600</v>
       </c>
       <c r="E17" s="3">
-        <v>2600</v>
+        <v>32100</v>
       </c>
       <c r="F17" s="3">
-        <v>1100</v>
+        <v>134500</v>
       </c>
       <c r="G17" s="3">
-        <v>2000</v>
+        <v>31900</v>
       </c>
       <c r="H17" s="3">
-        <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+        <v>27400</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-11400</v>
       </c>
       <c r="E18" s="3">
-        <v>-2600</v>
+        <v>-6000</v>
       </c>
       <c r="F18" s="3">
-        <v>-1100</v>
+        <v>-51600</v>
       </c>
       <c r="G18" s="3">
-        <v>-2000</v>
+        <v>-12600</v>
       </c>
       <c r="H18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-10100</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,54 +1043,58 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-2800</v>
       </c>
       <c r="E20" s="3">
-        <v>-9000</v>
+        <v>-200</v>
       </c>
       <c r="F20" s="3">
-        <v>3600</v>
+        <v>-900</v>
       </c>
       <c r="G20" s="3">
-        <v>4000</v>
+        <v>-8400</v>
       </c>
       <c r="H20" s="3">
-        <v>3800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-5200</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-11900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1067,95 +1105,107 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>22500</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>64800</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>15600</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>14300</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7200</v>
+        <v>-38500</v>
       </c>
       <c r="E23" s="3">
-        <v>-11600</v>
+        <v>-28700</v>
       </c>
       <c r="F23" s="3">
-        <v>2500</v>
+        <v>-117300</v>
       </c>
       <c r="G23" s="3">
-        <v>2000</v>
+        <v>-36600</v>
       </c>
       <c r="H23" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-29600</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>-7900</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>-3200</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1233,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7200</v>
+        <v>-38400</v>
       </c>
       <c r="E26" s="3">
-        <v>-11600</v>
+        <v>-28400</v>
       </c>
       <c r="F26" s="3">
-        <v>2500</v>
+        <v>-109400</v>
       </c>
       <c r="G26" s="3">
-        <v>2000</v>
+        <v>-34100</v>
       </c>
       <c r="H26" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-26400</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7200</v>
+        <v>-49000</v>
       </c>
       <c r="E27" s="3">
-        <v>-11600</v>
+        <v>-20000</v>
       </c>
       <c r="F27" s="3">
-        <v>2500</v>
+        <v>-306900</v>
       </c>
       <c r="G27" s="3">
-        <v>2000</v>
+        <v>-167200</v>
       </c>
       <c r="H27" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-33500</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1361,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1425,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>2800</v>
       </c>
       <c r="E32" s="3">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3">
-        <v>-3600</v>
+        <v>900</v>
       </c>
       <c r="G32" s="3">
-        <v>-4000</v>
+        <v>8400</v>
       </c>
       <c r="H32" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+        <v>5200</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7200</v>
+        <v>-49000</v>
       </c>
       <c r="E33" s="3">
-        <v>-11600</v>
+        <v>-20000</v>
       </c>
       <c r="F33" s="3">
-        <v>2500</v>
+        <v>-306900</v>
       </c>
       <c r="G33" s="3">
-        <v>2000</v>
+        <v>-167200</v>
       </c>
       <c r="H33" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+        <v>-33500</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,53 +1521,59 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7200</v>
+        <v>-49000</v>
       </c>
       <c r="E35" s="3">
-        <v>-11600</v>
+        <v>-20000</v>
       </c>
       <c r="F35" s="3">
-        <v>2500</v>
+        <v>-306900</v>
       </c>
       <c r="G35" s="3">
-        <v>2000</v>
+        <v>-167200</v>
       </c>
       <c r="H35" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+        <v>-33500</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
-      </c>
-      <c r="F38" s="2">
-        <v>44469</v>
       </c>
       <c r="G38" s="2">
         <v>44377</v>
@@ -1498,17 +1581,20 @@
       <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="I38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,25 +1620,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>27200</v>
       </c>
       <c r="E41" s="3">
-        <v>600</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
+        <v>39700</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1562,8 +1650,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,28 +1682,31 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>14000</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>400</v>
+        <v>14800</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1620,8 +1714,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,153 +1746,171 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>15200</v>
       </c>
       <c r="E45" s="3">
-        <v>500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>700</v>
-      </c>
-      <c r="I45" s="3">
-        <v>800</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+        <v>13900</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>600</v>
+        <v>56300</v>
       </c>
       <c r="E46" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>500</v>
-      </c>
-      <c r="G46" s="3">
-        <v>600</v>
-      </c>
-      <c r="H46" s="3">
-        <v>800</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+        <v>68400</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>175100</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>175100</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>175100</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>175100</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>175100</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>175000</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>29900</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>31600</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>309300</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>311500</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,16 +1970,19 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3800</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1875,14 +1996,17 @@
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2034,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>175700</v>
+        <v>399400</v>
       </c>
       <c r="E54" s="3">
-        <v>176200</v>
-      </c>
-      <c r="F54" s="3">
-        <v>175600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>175600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>175900</v>
-      </c>
-      <c r="I54" s="3">
-        <v>176200</v>
-      </c>
-      <c r="J54" s="3">
+        <v>415300</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,132 +2096,145 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>18100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>200</v>
-      </c>
-      <c r="J58" s="3">
+        <v>18100</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4300</v>
+        <v>69700</v>
       </c>
       <c r="E59" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>100</v>
-      </c>
-      <c r="I59" s="3">
+        <v>70000</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
-        <v>200</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6100</v>
+        <v>89300</v>
       </c>
       <c r="E60" s="3">
-        <v>4700</v>
-      </c>
-      <c r="F60" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>400</v>
-      </c>
-      <c r="J60" s="3">
+        <v>90100</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>372200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>347700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2110,28 +2254,31 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16700</v>
+        <v>37100</v>
       </c>
       <c r="E62" s="3">
-        <v>25800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>15700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>19200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>23200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>26900</v>
+        <v>38200</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2139,8 +2286,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2382,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22800</v>
+        <v>498600</v>
       </c>
       <c r="E66" s="3">
-        <v>30500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>18700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>21200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>23500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>27300</v>
-      </c>
-      <c r="J66" s="3">
+        <v>476000</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,16 +2492,19 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>451400</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>440800</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2355,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2556,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-22100</v>
+        <v>-549200</v>
       </c>
       <c r="E72" s="3">
-        <v>-29300</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-18100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-26100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+        <v>-500900</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2684,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>152900</v>
+        <v>-550600</v>
       </c>
       <c r="E76" s="3">
-        <v>145700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>156900</v>
-      </c>
-      <c r="G76" s="3">
-        <v>154400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>152400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>148900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+        <v>-501400</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,24 +2748,27 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
-      </c>
-      <c r="F80" s="2">
-        <v>44469</v>
       </c>
       <c r="G80" s="2">
         <v>44377</v>
@@ -2583,46 +2776,52 @@
       <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="I80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7200</v>
+        <v>-49000</v>
       </c>
       <c r="E81" s="3">
-        <v>-11600</v>
+        <v>-20000</v>
       </c>
       <c r="F81" s="3">
-        <v>2500</v>
+        <v>-306900</v>
       </c>
       <c r="G81" s="3">
-        <v>2000</v>
+        <v>-167200</v>
       </c>
       <c r="H81" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-33500</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2833,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>16400</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>3400</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3023,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-400</v>
+        <v>-8100</v>
       </c>
       <c r="E89" s="3">
-        <v>-1000</v>
+        <v>-10200</v>
       </c>
       <c r="F89" s="3">
-        <v>100</v>
+        <v>-37000</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-5100</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-5500</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3071,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-3900</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-5600</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-1200</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3165,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-3900</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-49200</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-22900</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-4900</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3339,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3104,16 +3351,16 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>1500</v>
+        <v>19700</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>74300</v>
       </c>
       <c r="G100" s="3">
-        <v>-100</v>
+        <v>17600</v>
       </c>
       <c r="H100" s="3">
-        <v>200</v>
+        <v>17500</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3124,62 +3371,71 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-400</v>
+        <v>-12500</v>
       </c>
       <c r="E102" s="3">
-        <v>500</v>
+        <v>7500</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>-12000</v>
       </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>-10700</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
+        <v>7300</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOTE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,120 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E8" s="3">
         <v>27200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>26100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>82900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17300</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E9" s="3">
         <v>5700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3000</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -781,29 +788,32 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E10" s="3">
         <v>21500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>66900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>15500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14300</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -813,8 +823,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,29 +840,30 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E12" s="3">
         <v>3800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5300</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -859,8 +873,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,72 +908,81 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-7400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E15" s="3">
         <v>4600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>15200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3400</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,72 +992,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>119400</v>
+      </c>
+      <c r="E17" s="3">
         <v>38600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>32100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>134500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>31900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>27400</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-90300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-11400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-51600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,61 +1077,65 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5200</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-36100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-17300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11900</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1108,104 +1145,116 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E22" s="3">
         <v>24300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>22500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>64800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>14300</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-111300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-38500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-28700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-117300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-36600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-29600</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-7900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3200</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,72 +1285,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-38400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-28400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-109400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-34100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-26400</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-133400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-49000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-306900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-167200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-33500</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1390,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +1425,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1460,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,72 +1495,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E32" s="3">
         <v>2800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5200</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-133400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-49000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-306900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-167200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-33500</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,77 +1600,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-133400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-49000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-306900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-167200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-33500</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1692,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,20 +1707,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E41" s="3">
         <v>27200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>39700</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1653,8 +1740,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,20 +1775,23 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E43" s="3">
         <v>14000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14800</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,8 +1810,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1749,20 +1845,23 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E45" s="3">
         <v>15200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13900</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1775,26 +1874,29 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>102500</v>
+      </c>
+      <c r="E46" s="3">
         <v>56300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>68400</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1807,14 +1909,17 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1839,26 +1944,29 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E48" s="3">
         <v>29900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31600</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1871,26 +1979,29 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>314300</v>
+      </c>
+      <c r="E49" s="3">
         <v>309300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>311500</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1903,14 +2014,17 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2055,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,20 +2090,23 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E52" s="3">
         <v>3900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3800</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1999,14 +2119,17 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,20 +2160,23 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>450400</v>
+      </c>
+      <c r="E54" s="3">
         <v>399400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>415300</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2063,14 +2189,17 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2212,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,20 +2227,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,25 +2254,28 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>18100</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>18100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>18100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2155,26 +2289,29 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E59" s="3">
         <v>69700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>70000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,26 +2324,29 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E60" s="3">
         <v>89300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>90100</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2219,26 +2359,29 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E61" s="3">
         <v>372200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>347700</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2257,20 +2400,23 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E62" s="3">
         <v>37100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>38200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,8 +2435,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2470,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2505,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,20 +2540,23 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>269400</v>
+      </c>
+      <c r="E66" s="3">
         <v>498600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>476000</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,14 +2569,17 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2592,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2625,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,20 +2660,23 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>451400</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>440800</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -2527,8 +2695,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,20 +2730,23 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-658200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-549200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-500900</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,14 +2759,17 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2800,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +2835,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,20 +2870,23 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-550600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-501400</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2713,14 +2899,17 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,77 +2940,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-133400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-49000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-306900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-167200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-33500</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,40 +3032,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E83" s="3">
         <v>4900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3400</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3100,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3135,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3170,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3205,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,40 +3240,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-37000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5500</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,40 +3292,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3360,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,40 +3395,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-49200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4900</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3447,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3480,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3515,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3550,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,29 +3585,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>91800</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>19700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>74300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>17600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>17500</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3374,68 +3620,77 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7300</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOTE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t>NOTE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,194 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>31400</v>
+      </c>
+      <c r="F8" s="3">
         <v>29100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>27200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>26100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>82900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>19300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>17300</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E9" s="3">
         <v>5900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G9" s="3">
         <v>5700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>5300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>16000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>3800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>25500</v>
+      </c>
+      <c r="F10" s="3">
         <v>23200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>21500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>20800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>66900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>15500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>14300</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,43 +866,51 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F12" s="3">
         <v>5600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>3800</v>
-      </c>
-      <c r="F12" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>24000</v>
       </c>
       <c r="H12" s="3">
         <v>6000</v>
       </c>
       <c r="I12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K12" s="3">
         <v>5300</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,78 +944,96 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F14" s="3">
         <v>47500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-7400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>2500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F15" s="3">
         <v>5400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>4600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>4400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>15200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>3300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>3400</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -993,78 +1044,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>62800</v>
+      </c>
+      <c r="F17" s="3">
         <v>119400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>38600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>32100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>134500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>31900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>27400</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
+      <c r="L17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-90300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-11400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-6000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-51600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-12600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-10100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
+      <c r="L18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,183 +1143,215 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F20" s="3">
         <v>21900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-2800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-8400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-5200</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-62700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-9400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-36100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-17300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-11900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F22" s="3">
         <v>42900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>24300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>22500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>64800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>15600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>14300</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-111300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-38500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-28700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-117300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-36600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-29600</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
+      <c r="L23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-7900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-2600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-3200</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,78 +1385,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-109000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-38400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-28400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-109400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-34100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-26400</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
+      <c r="L26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-133400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-49000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-20000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-306900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-167200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-33500</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
+      <c r="L27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1428,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,78 +1631,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-21900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>2800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>8400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>5200</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-133400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-49000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-20000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-306900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-167200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-33500</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
+      <c r="L33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1603,83 +1754,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-133400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-49000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-20000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-306900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-167200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-33500</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
+      <c r="L35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1693,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1708,26 +1879,28 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>60400</v>
+      </c>
+      <c r="F41" s="3">
         <v>78000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>27200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>39700</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1743,8 +1916,14 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1778,26 +1957,32 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F43" s="3">
         <v>12500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>14000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>14800</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1813,8 +1998,14 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1848,26 +2039,32 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F45" s="3">
         <v>12000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>15200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>13900</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,32 +2074,38 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>86000</v>
+      </c>
+      <c r="F46" s="3">
         <v>102500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>56300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>68400</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1912,14 +2115,20 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
+      <c r="L46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1947,32 +2156,38 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>28300</v>
+      </c>
+      <c r="F48" s="3">
         <v>29500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>29900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>31600</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,32 +2197,38 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>334200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>314400</v>
+      </c>
+      <c r="F49" s="3">
         <v>314300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>309300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>311500</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2017,14 +2238,20 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2058,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2093,26 +2326,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F52" s="3">
         <v>4100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3800</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2122,14 +2361,20 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2163,26 +2408,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>441000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>433200</v>
+      </c>
+      <c r="F54" s="3">
         <v>450400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>399400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>415300</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,14 +2443,20 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2213,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2228,26 +2487,28 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F57" s="3">
         <v>11200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2257,14 +2518,20 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2272,17 +2539,17 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>18100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>18100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2292,32 +2559,38 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>48300</v>
+      </c>
+      <c r="F59" s="3">
         <v>50500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>69700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>70000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2327,32 +2600,38 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>62100</v>
+      </c>
+      <c r="F60" s="3">
         <v>61800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>89300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>90100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2362,32 +2641,38 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>176700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>162000</v>
+      </c>
+      <c r="F61" s="3">
         <v>160000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>372200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>347700</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2403,26 +2688,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>64400</v>
+      </c>
+      <c r="F62" s="3">
         <v>47500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>37100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>38200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,8 +2729,14 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2473,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2508,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2543,26 +2852,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>300600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>288500</v>
+      </c>
+      <c r="F66" s="3">
         <v>269400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>498600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>476000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2572,14 +2887,20 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2593,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2628,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2663,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2672,17 +3007,17 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>451400</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>440800</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2698,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2733,26 +3074,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-700700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-658200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-549200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-500900</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,14 +3109,20 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
+      <c r="L72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2803,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2838,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2873,26 +3238,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
+        <v>144700</v>
+      </c>
+      <c r="F76" s="3">
         <v>181000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-550600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-501400</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2902,14 +3273,20 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
+      <c r="L76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2943,83 +3320,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-133400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-49000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-20000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-306900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-167200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-33500</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
+      <c r="L81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3033,8 +3428,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3042,34 +3439,40 @@
         <v>5700</v>
       </c>
       <c r="E83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F83" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G83" s="3">
         <v>4900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>4700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>16400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>3800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>3400</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3138,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3173,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3243,43 +3670,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-39200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-8100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-10200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-37000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-5100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-5500</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3293,43 +3732,51 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3">
-        <v>-5600</v>
-      </c>
       <c r="H91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3363,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3398,43 +3851,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-49200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-22900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-4900</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3448,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3483,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3518,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3553,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3588,109 +4073,133 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>91800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>19700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>74300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>17600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>17500</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="F102" s="3">
         <v>50800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-12500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>7500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-12000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-10700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>7300</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOTE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>NOTE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,149 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E8" s="3">
         <v>31500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>31400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>29100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>27200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>26100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>82900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17300</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>8900</v>
+        <v>6400</v>
       </c>
       <c r="E9" s="3">
-        <v>5900</v>
+        <v>6300</v>
       </c>
       <c r="F9" s="3">
         <v>5900</v>
       </c>
       <c r="G9" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H9" s="3">
         <v>5700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3000</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -810,38 +817,41 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>22600</v>
+        <v>26400</v>
       </c>
       <c r="E10" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F10" s="3">
         <v>25500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>21500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>66900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>15500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -851,8 +861,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,38 +881,39 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E12" s="3">
         <v>5100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5300</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -909,8 +923,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,90 +967,99 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1400</v>
+        <v>3800</v>
       </c>
       <c r="E14" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F14" s="3">
         <v>12600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>47500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-7400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2800</v>
+        <v>6000</v>
       </c>
       <c r="E15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F15" s="3">
         <v>5100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>15200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3400</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1072,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E17" s="3">
         <v>58900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>62800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>119400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>38600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>32100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>134500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>31900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27400</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-31400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-90300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-51600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,79 +1178,83 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-3100</v>
       </c>
       <c r="E20" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-5400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>21900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-8400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-17300</v>
       </c>
       <c r="E21" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-31500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-62700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-36100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-17300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1227,131 +1264,143 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E22" s="3">
         <v>6700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>42900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>24300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>22500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>64800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14300</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-30800</v>
       </c>
       <c r="E23" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-43000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-111300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-38500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-28700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-117300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-36600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-29600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-7900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3200</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1440,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-31000</v>
       </c>
       <c r="E26" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-42500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-109000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-38400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-28400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-109400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-34100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-26400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-31000</v>
       </c>
       <c r="E27" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-42500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-133400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-49000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-306900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-167200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-33500</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1704,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>3100</v>
       </c>
       <c r="E32" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="F32" s="3">
         <v>5400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-21900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>8400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-31000</v>
       </c>
       <c r="E33" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-42500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-133400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-49000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-306900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-167200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-33500</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1836,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-31000</v>
       </c>
       <c r="E35" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-42500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-133400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-49000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-306900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-167200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-33500</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,29 +1967,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E41" s="3">
         <v>46700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>60400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>78000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>27200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>39700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,8 +2009,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,29 +2053,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E43" s="3">
         <v>17300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14800</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,8 +2097,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,29 +2141,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E45" s="3">
         <v>12100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13900</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,35 +2179,38 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E46" s="3">
         <v>76100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>86000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>102500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>56300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>68400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2121,14 +2223,17 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2162,35 +2267,38 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E48" s="3">
         <v>26100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>28300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31600</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2203,35 +2311,38 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>330800</v>
+      </c>
+      <c r="E49" s="3">
         <v>334200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>314400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>314300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>309300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>311500</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2244,14 +2355,17 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,29 +2449,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E52" s="3">
         <v>4600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3800</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,14 +2487,17 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,29 +2537,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>423000</v>
+      </c>
+      <c r="E54" s="3">
         <v>441000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>433200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>450400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>399400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>415300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2449,14 +2575,17 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,29 +2619,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E57" s="3">
         <v>13800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2524,14 +2655,17 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2545,13 +2679,13 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>18100</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>18100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>18100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2565,35 +2699,38 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E59" s="3">
         <v>56800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>48300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>50500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>69700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>70000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2606,35 +2743,38 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E60" s="3">
         <v>70700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>62100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>61800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>89300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>90100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2647,35 +2787,38 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>214700</v>
+      </c>
+      <c r="E61" s="3">
         <v>176700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>162000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>160000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>372200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>347700</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2694,29 +2837,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E62" s="3">
         <v>53200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>64400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>47500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>37100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>38200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2881,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,29 +3013,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>329200</v>
+      </c>
+      <c r="E66" s="3">
         <v>300600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>288500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>269400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>498600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>476000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2893,14 +3051,17 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3013,14 +3181,14 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>451400</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>440800</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -3039,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,29 +3251,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-751200</v>
       </c>
       <c r="E72" s="3">
+        <v>-720200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-700700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-658200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-549200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-500900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3115,14 +3289,17 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,29 +3427,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>93700</v>
       </c>
       <c r="E76" s="3">
+        <v>140400</v>
+      </c>
+      <c r="F76" s="3">
         <v>144700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>181000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-550600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-501400</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3279,14 +3465,17 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3515,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-31000</v>
       </c>
       <c r="E81" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-42500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-133400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-49000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-306900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-167200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-33500</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3628,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E83" s="3">
         <v>5700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3890,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-39200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-37000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5500</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3954,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4084,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-2200</v>
       </c>
       <c r="E94" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-49200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-22900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,38 +4322,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>6200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>91800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>19700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>74300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>17600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>17500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4120,86 +4366,95 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-9400</v>
       </c>
       <c r="E102" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-17600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>50800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-12500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-10700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOTE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOTE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>NOTE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,159 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E8" s="3">
         <v>32800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>31500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>31400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>29100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>27200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>26100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>82900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17300</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E9" s="3">
         <v>6400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6300</v>
-      </c>
-      <c r="F9" s="3">
-        <v>5900</v>
       </c>
       <c r="G9" s="3">
         <v>5900</v>
       </c>
       <c r="H9" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I9" s="3">
         <v>5700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -820,41 +827,44 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E10" s="3">
         <v>26400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>21500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>66900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14300</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -864,8 +874,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +895,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,32 +905,32 @@
         <v>4500</v>
       </c>
       <c r="E12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F12" s="3">
         <v>5100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5300</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -926,8 +940,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,96 +987,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>3800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>47500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-7400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E15" s="3">
         <v>6000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>15200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3400</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1099,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E17" s="3">
         <v>53300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>58900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>62800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>119400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>38600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>32100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>134500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>31900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>27400</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-20500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-27400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-31400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-90300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-51600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,85 +1212,89 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>14800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>21900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-17300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-31500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-62700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-9400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-36100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1267,140 +1304,152 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E22" s="3">
         <v>7200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>42900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>24300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>22500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>64800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>14300</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-30800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-43000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-111300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-38500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-28700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-117300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-36600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-29600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-7900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3200</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1492,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-31000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-42500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-109000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-38400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-28400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-109400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-34100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26400</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-31000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-19300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-42500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-133400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-49000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-306900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-167200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-33500</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1633,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1680,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1727,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,96 +1774,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E32" s="3">
         <v>3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-14800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-21900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-31000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-42500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-133400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-49000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-306900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-167200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-33500</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1915,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-31000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-42500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-133400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-49000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-306900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-167200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-33500</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2035,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,32 +2054,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E41" s="3">
         <v>37300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>46700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>60400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>78000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>27200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>39700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2012,31 +2099,34 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>7100</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2056,32 +2146,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E43" s="3">
         <v>14900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>14900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14800</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,8 +2193,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2144,32 +2240,35 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E45" s="3">
         <v>10000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13900</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2182,38 +2281,41 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E46" s="3">
         <v>62200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>76100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>86000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>102500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>56300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>68400</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2226,14 +2328,17 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2270,38 +2375,41 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E48" s="3">
         <v>25600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>26100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>28300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>31600</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2314,38 +2422,41 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>323200</v>
+      </c>
+      <c r="E49" s="3">
         <v>330800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>334200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>314400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>314300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>309300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>311500</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2358,14 +2469,17 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2522,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,32 +2569,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E52" s="3">
         <v>4500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3800</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,14 +2610,17 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,32 +2663,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400900</v>
+      </c>
+      <c r="E54" s="3">
         <v>423000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>441000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>433200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>450400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>399400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>415300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,14 +2704,17 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2731,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,32 +2750,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E57" s="3">
         <v>13300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2658,14 +2789,17 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2682,13 +2816,13 @@
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>18100</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>18100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>18100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2702,38 +2836,41 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E59" s="3">
         <v>57400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>56800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>48300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>50500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>69700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>70000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2746,38 +2883,41 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E60" s="3">
         <v>70800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>70700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>62100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>61800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>89300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>90100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2790,38 +2930,41 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>213200</v>
+      </c>
+      <c r="E61" s="3">
         <v>214700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>176700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>162000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>160000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>372200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>347700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2840,32 +2983,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E62" s="3">
         <v>43800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>53200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>64400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>47500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>37100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>38200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2884,8 +3030,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3077,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3124,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,32 +3171,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>317300</v>
+      </c>
+      <c r="E66" s="3">
         <v>329200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>300600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>288500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>269400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>498600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>476000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3054,14 +3212,17 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3239,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3284,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3331,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3184,14 +3352,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>451400</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>440800</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3210,8 +3378,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,32 +3425,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-765700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-751200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-720200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-700700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-658200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-549200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-500900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3292,14 +3466,17 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3519,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3566,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,32 +3613,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>83600</v>
+      </c>
+      <c r="E76" s="3">
         <v>93700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>140400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>144700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>181000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-550600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-501400</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3468,14 +3654,17 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3707,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O80" s="2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-31000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-42500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-133400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-49000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-306900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-167200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-33500</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,52 +3827,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E83" s="3">
         <v>6300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>16400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3919,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3966,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4013,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4060,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4107,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-39200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-37000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5500</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,52 +4175,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3000</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4267,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,52 +4314,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-49200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4382,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4427,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4474,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4521,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,41 +4568,44 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>91800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>19700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>74300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>17600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>17500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4369,92 +4615,101 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>50800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-12500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-12000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
